--- a/custom sim/Michigan 2014.xlsx
+++ b/custom sim/Michigan 2014.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Westo\OneDrive\Documents\School\FEB\Git\OpenLap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ddc151335309a76/Documents/GitHub/FEBSim/custom sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDAAB32-D6BC-4087-8663-60A93BB5CA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FEDAAB32-D6BC-4087-8663-60A93BB5CA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEA8448A-DA66-4FEE-ABDF-0F9D3F7ADAD4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -267,53 +267,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -375,6 +328,53 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -389,30 +389,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C804" totalsRowCount="1" totalsRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C804" totalsRowCount="1" totalsRowDxfId="11">
   <autoFilter ref="A1:C803" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Section Length" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Corner Radius" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Section Length" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Corner Radius" totalsRowDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B3" totalsRowShown="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B3" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Point [m]" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Elevation [m]" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Point [m]" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Elevation [m]" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:B3" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:B3" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" totalsRowBorderDxfId="0">
   <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start Point [m]"/>
@@ -703,13 +703,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -717,7 +717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -725,7 +725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -733,7 +733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -741,7 +741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -749,7 +749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -757,7 +757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -775,18 +775,18 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C804"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A795" workbookViewId="0">
-      <selection activeCell="F803" sqref="F803"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="7.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26171875" customWidth="1"/>
+    <col min="3" max="3" width="14.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -797,7 +797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -816,7 +816,7 @@
         <v>31.088999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -827,7 +827,7 @@
         <v>30.988</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -838,7 +838,7 @@
         <v>31.178000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -849,7 +849,7 @@
         <v>30.847999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -860,7 +860,7 @@
         <v>29.233000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -871,7 +871,7 @@
         <v>26.905000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -882,7 +882,7 @@
         <v>24.847999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -893,7 +893,7 @@
         <v>25.484999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -904,7 +904,7 @@
         <v>22.867999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -915,7 +915,7 @@
         <v>22.370999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -926,7 +926,7 @@
         <v>23.315000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -937,7 +937,7 @@
         <v>25.597000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -948,7 +948,7 @@
         <v>24.841000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -959,7 +959,7 @@
         <v>20.637</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -970,7 +970,7 @@
         <v>18.341999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -981,7 +981,7 @@
         <v>16.058</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -992,7 +992,7 @@
         <v>14.664999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>14.412000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>13.006</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>11.175000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>10.042999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>9.8469999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>9.7889999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>9.8789999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>10.776999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>13.256</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>30.631</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>75.117000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>22.132000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>17.79</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>16.195</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>11.763</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>11.387</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>11.611000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>12.276</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>14.156000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>18.027999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>35.768000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>335.49400000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>54.680999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>33.99</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>25.876000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>20.009</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>16.928999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>15.462</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>15.023999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>16.337</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>20.498999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>2</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>29.896999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>2</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>54.892000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>1858.509</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>44.087000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>22.632000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>18.091000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>15.617000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>14.753</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>13.516999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>13.135</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>12.609</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>13.590999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>25.646999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>61.042999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>12.085000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>8.9960000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>8.2159999999999993</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>8.4350000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>9.4190000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>12.84</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>18.837</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>29.532</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>145.21799999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>51.658999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>28.584</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>1</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>28.837</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>31.777000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>1</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>36.314</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>1</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>40.707000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
         <v>1</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>45.88</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>55.53</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>71.091999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>1</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>86.921999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
         <v>1</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>108.026</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>129.06200000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
         <v>1</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>163.78</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
         <v>1</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>217.27799999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
         <v>1</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>248.75899999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
         <v>1</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>279.19099999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>262.12900000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>368.85500000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>403.9</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
         <v>1</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>448.416</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>463.62099999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>1</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>497.4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
         <v>1</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>558.66800000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
         <v>1</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>559.05899999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>1</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>1185.4939999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>715.76800000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1" t="s">
         <v>2</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>642.74800000000005</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>709.226</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1" t="s">
         <v>0</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1" t="s">
         <v>1</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>1430.8119999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1" t="s">
         <v>2</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>1546.6469999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
         <v>2</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>394.23</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
         <v>2</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>355.93299999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>366.15800000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>2</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>580.37599999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
         <v>2</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>979.42600000000004</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1" t="s">
         <v>2</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>1033.4739999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>198.35599999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>91.855000000000004</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1" t="s">
         <v>2</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>55.817</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
         <v>2</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>52.348999999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
         <v>2</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>72.724000000000004</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1" t="s">
         <v>2</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>1864.152</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
         <v>1</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>76.665999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
         <v>1</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>44.83</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
         <v>1</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>39.290999999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>35.914999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1" t="s">
         <v>1</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>34.991</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1" t="s">
         <v>1</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>35.715000000000003</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1" t="s">
         <v>1</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>41.579000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1" t="s">
         <v>1</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>51.396999999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1" t="s">
         <v>1</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>80.010000000000005</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1" t="s">
         <v>1</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>160.828</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1" t="s">
         <v>1</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>1651.691</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
         <v>2</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>482.83300000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1" t="s">
         <v>2</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>250.75299999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1" t="s">
         <v>2</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>142.56899999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1" t="s">
         <v>2</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>87.617999999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1" t="s">
         <v>2</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>63.25</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1" t="s">
         <v>2</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>58.598999999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>46.115000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
         <v>2</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>28.523</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1" t="s">
         <v>2</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>19.527999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1" t="s">
         <v>2</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>16.126000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1" t="s">
         <v>2</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>14.804</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1" t="s">
         <v>2</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>18.242999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1" t="s">
         <v>2</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>27.902999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1" t="s">
         <v>2</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>105.069</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1" t="s">
         <v>1</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>52.898000000000003</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1" t="s">
         <v>1</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>20.946000000000002</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1" t="s">
         <v>1</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>13.36</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1" t="s">
         <v>1</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>13.356999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1" t="s">
         <v>1</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>13.22</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1" t="s">
         <v>1</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>13.59</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1" t="s">
         <v>1</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>13.398999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1" t="s">
         <v>1</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>13.920999999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
         <v>1</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>15.994</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1" t="s">
         <v>1</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>28.041</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1" t="s">
         <v>2</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>219.40700000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1" t="s">
         <v>2</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>24.469000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1" t="s">
         <v>2</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>15.715999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1" t="s">
         <v>2</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>14.22</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1" t="s">
         <v>2</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>12.842000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1" t="s">
         <v>2</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>12.961</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1" t="s">
         <v>2</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>12.824</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1" t="s">
         <v>2</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>13.051</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1" t="s">
         <v>2</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>14.717000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1" t="s">
         <v>2</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>21.344999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1" t="s">
         <v>2</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>446.899</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1" t="s">
         <v>1</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>18.751999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1" t="s">
         <v>1</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>10.739000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1" t="s">
         <v>1</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1" t="s">
         <v>1</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>9.6850000000000005</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1" t="s">
         <v>1</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>10.452999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1" t="s">
         <v>1</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>10.457000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1" t="s">
         <v>1</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>11.195</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1" t="s">
         <v>1</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>13.795999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>28.372</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1" t="s">
         <v>2</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>183.66300000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1" t="s">
         <v>2</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>28.02</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1" t="s">
         <v>2</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>20.652999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1" t="s">
         <v>2</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>19.465</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1" t="s">
         <v>2</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>18.113</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1" t="s">
         <v>2</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>17.971</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1" t="s">
         <v>2</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>17.632999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1" t="s">
         <v>2</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>17.626999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1" t="s">
         <v>2</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>16.407</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1" t="s">
         <v>2</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>16.338000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1" t="s">
         <v>2</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>17.425999999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1" t="s">
         <v>2</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>20.082999999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1" t="s">
         <v>2</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>22.315000000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1" t="s">
         <v>2</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>25.366</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1" t="s">
         <v>2</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>32.344000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1" t="s">
         <v>2</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>61.472000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1" t="s">
         <v>2</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>272.57900000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1" t="s">
         <v>1</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>259.31</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1" t="s">
         <v>1</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>104.884</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1" t="s">
         <v>1</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>55.779000000000003</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1" t="s">
         <v>1</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>37.198</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1" t="s">
         <v>1</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>29.536000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1" t="s">
         <v>1</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>26.199000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1" t="s">
         <v>1</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>23.536999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1" t="s">
         <v>1</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>21.931000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1" t="s">
         <v>1</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>19.303000000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1" t="s">
         <v>1</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1" t="s">
         <v>1</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1" t="s">
         <v>1</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>10.629</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1" t="s">
         <v>1</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>11.308</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1" t="s">
         <v>1</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>11.351000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1" t="s">
         <v>1</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>10.962</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1" t="s">
         <v>1</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>9.2270000000000003</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1" t="s">
         <v>1</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>8.7970000000000006</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1" t="s">
         <v>1</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>8.468</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1" t="s">
         <v>1</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>8.9730000000000008</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1" t="s">
         <v>1</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>9.2070000000000007</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1" t="s">
         <v>1</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>11.141</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1" t="s">
         <v>1</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>15.727</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1" t="s">
         <v>1</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>42.908000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1" t="s">
         <v>2</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>57.64</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1" t="s">
         <v>2</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>16.547000000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1" t="s">
         <v>2</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>12.657</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1" t="s">
         <v>2</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>11.147</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1" t="s">
         <v>2</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>10.177</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1" t="s">
         <v>2</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>8.81</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1" t="s">
         <v>2</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>7.1619999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1" t="s">
         <v>2</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>6.5389999999999997</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1" t="s">
         <v>2</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>6.0860000000000003</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1" t="s">
         <v>2</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>5.8620000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1" t="s">
         <v>2</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>5.806</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1" t="s">
         <v>2</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>5.6280000000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1" t="s">
         <v>2</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>5.585</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1" t="s">
         <v>2</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>5.3959999999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1" t="s">
         <v>2</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>5.6280000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1" t="s">
         <v>2</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>7.0730000000000004</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1" t="s">
         <v>2</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>11.863</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1" t="s">
         <v>2</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>65.415999999999997</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1" t="s">
         <v>1</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>28.350999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1" t="s">
         <v>1</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>12.198</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1" t="s">
         <v>1</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>9.8490000000000002</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1" t="s">
         <v>1</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>9.1340000000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1" t="s">
         <v>1</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>9.9559999999999995</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1" t="s">
         <v>1</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>9.89</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1" t="s">
         <v>1</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>10.37</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1" t="s">
         <v>1</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>11.111000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1" t="s">
         <v>1</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>11.689</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1" t="s">
         <v>1</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>12.69</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1" t="s">
         <v>1</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>13.352</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1" t="s">
         <v>1</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>14.298</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1" t="s">
         <v>1</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>14.564</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1" t="s">
         <v>1</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>15.361000000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1" t="s">
         <v>1</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>16.838000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1" t="s">
         <v>1</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>18.940999999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1" t="s">
         <v>1</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>22.975000000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1" t="s">
         <v>1</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>31.285</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1" t="s">
         <v>1</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>48.414000000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1" t="s">
         <v>1</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>88.009</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1" t="s">
         <v>1</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>160.93</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1" t="s">
         <v>1</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>344.45499999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1" t="s">
         <v>0</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1" t="s">
         <v>2</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>476.714</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1" t="s">
         <v>2</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>188.93600000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1" t="s">
         <v>2</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>88.073999999999998</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1" t="s">
         <v>2</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>57.503999999999998</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1" t="s">
         <v>2</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>50.249000000000002</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1" t="s">
         <v>2</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>49.231999999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1" t="s">
         <v>2</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>42.317999999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1" t="s">
         <v>2</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>33.976999999999997</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1" t="s">
         <v>2</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>30.116</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1" t="s">
         <v>2</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>29.702000000000002</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1" t="s">
         <v>2</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>32.241</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1" t="s">
         <v>2</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>34.585999999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1" t="s">
         <v>2</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>35.134</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1" t="s">
         <v>2</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>33.619</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1" t="s">
         <v>2</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>32.561</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1" t="s">
         <v>2</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>34.631</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1" t="s">
         <v>2</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>38.067</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1" t="s">
         <v>2</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>45.322000000000003</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1" t="s">
         <v>2</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>78.465999999999994</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1" t="s">
         <v>2</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>284.06799999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1" t="s">
         <v>1</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>269.92</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1" t="s">
         <v>1</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>154.553</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1" t="s">
         <v>1</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>96.912000000000006</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1" t="s">
         <v>1</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>68.853999999999999</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1" t="s">
         <v>1</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>59.384999999999998</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1" t="s">
         <v>1</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>57.116999999999997</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1" t="s">
         <v>1</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>54.887</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1" t="s">
         <v>1</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>51.002000000000002</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1" t="s">
         <v>1</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>47.237000000000002</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1" t="s">
         <v>1</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>45.218000000000004</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1" t="s">
         <v>1</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>43.369</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1" t="s">
         <v>1</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>53.804000000000002</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1" t="s">
         <v>1</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>117.976</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1" t="s">
         <v>2</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>329.49599999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1" t="s">
         <v>2</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>103.357</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1" t="s">
         <v>2</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>84.95</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1" t="s">
         <v>2</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>75.295000000000002</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1" t="s">
         <v>2</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>70.894999999999996</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1" t="s">
         <v>2</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>81.424000000000007</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1" t="s">
         <v>2</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>106.101</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1" t="s">
         <v>2</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>154.60300000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1" t="s">
         <v>2</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>212.21899999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1" t="s">
         <v>2</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>584.64099999999996</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1" t="s">
         <v>1</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>1896.5840000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1" t="s">
         <v>1</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>494.05599999999998</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1" t="s">
         <v>1</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>573.20500000000004</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1" t="s">
         <v>1</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>682.92499999999995</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1" t="s">
         <v>1</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>702.66499999999996</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1" t="s">
         <v>1</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>1458.9970000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1" t="s">
         <v>1</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>1024.577</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1" t="s">
         <v>1</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>817.45399999999995</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1" t="s">
         <v>1</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>406.65600000000001</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1" t="s">
         <v>1</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>282.255</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1" t="s">
         <v>1</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>232.88200000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1" t="s">
         <v>1</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>227.30099999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1" t="s">
         <v>1</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>241.28100000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1" t="s">
         <v>1</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>246.47</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1" t="s">
         <v>1</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>239.209</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1" t="s">
         <v>1</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>208.81800000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1" t="s">
         <v>1</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>168.35400000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1" t="s">
         <v>1</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>117.572</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1" t="s">
         <v>1</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>90.644000000000005</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1" t="s">
         <v>1</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>77.055000000000007</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1" t="s">
         <v>1</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>85.900999999999996</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1" t="s">
         <v>1</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>124.29900000000001</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1" t="s">
         <v>1</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>148.96</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1" t="s">
         <v>1</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>107.556</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1" t="s">
         <v>1</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>69.004999999999995</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="1" t="s">
         <v>1</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>54.392000000000003</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1" t="s">
         <v>1</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>46.183</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1" t="s">
         <v>1</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>50.898000000000003</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1" t="s">
         <v>1</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>108.495</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1" t="s">
         <v>2</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>119.30200000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1" t="s">
         <v>2</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>34.673000000000002</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1" t="s">
         <v>2</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>19.577000000000002</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1" t="s">
         <v>2</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>14.114000000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1" t="s">
         <v>2</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>13.026</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1" t="s">
         <v>2</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>13.81</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1" t="s">
         <v>2</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>16.684000000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1" t="s">
         <v>2</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>23.87</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1" t="s">
         <v>2</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>41.485999999999997</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1" t="s">
         <v>2</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>95.983000000000004</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1" t="s">
         <v>2</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>954.26300000000003</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="1" t="s">
         <v>1</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>167.58600000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="1" t="s">
         <v>1</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>90.265000000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="1" t="s">
         <v>1</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>68.546999999999997</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="1" t="s">
         <v>1</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>58.831000000000003</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="1" t="s">
         <v>1</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>50.968000000000004</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="1" t="s">
         <v>1</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>49.177999999999997</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="1" t="s">
         <v>1</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>45.222000000000001</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="1" t="s">
         <v>1</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>43.609000000000002</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="1" t="s">
         <v>1</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>41.194000000000003</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="1" t="s">
         <v>1</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>39.618000000000002</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="1" t="s">
         <v>1</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>38.722999999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1" t="s">
         <v>1</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>38.432000000000002</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1" t="s">
         <v>1</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>38.247</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="1" t="s">
         <v>1</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>37.817999999999998</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="1" t="s">
         <v>1</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>38.341000000000001</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="1" t="s">
         <v>1</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>40.143000000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="1" t="s">
         <v>1</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>43.636000000000003</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="1" t="s">
         <v>1</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>49.83</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="1" t="s">
         <v>1</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>63.274999999999999</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="1" t="s">
         <v>1</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>132.06</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="1" t="s">
         <v>1</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>1619.2809999999999</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="1" t="s">
         <v>2</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>277.64999999999998</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="1" t="s">
         <v>2</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>259.99</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="1" t="s">
         <v>2</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>204.709</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="1" t="s">
         <v>2</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>163.9</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="1" t="s">
         <v>2</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>156.785</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="1" t="s">
         <v>2</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>163.965</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="1" t="s">
         <v>2</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>203.15600000000001</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="1" t="s">
         <v>2</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>210.768</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="1" t="s">
         <v>2</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>296.69400000000002</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="1" t="s">
         <v>2</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>200.91800000000001</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="1" t="s">
         <v>2</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>112.833</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="1" t="s">
         <v>2</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>55.503</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="1" t="s">
         <v>2</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>28.792999999999999</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="1" t="s">
         <v>2</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="1" t="s">
         <v>2</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>13.853999999999999</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="1" t="s">
         <v>2</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>11.192</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="1" t="s">
         <v>2</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>8.9760000000000009</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="1" t="s">
         <v>2</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>7.9939999999999998</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="1" t="s">
         <v>2</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="1" t="s">
         <v>2</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>6.7969999999999997</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="1" t="s">
         <v>2</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>6.101</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="1" t="s">
         <v>2</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>5.5179999999999998</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="1" t="s">
         <v>2</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>5.8029999999999999</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="1" t="s">
         <v>2</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>5.4050000000000002</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="1" t="s">
         <v>2</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>6.2549999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="1" t="s">
         <v>2</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>5.6859999999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="1" t="s">
         <v>2</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>6.4130000000000003</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="1" t="s">
         <v>2</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>6.5529999999999999</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="1" t="s">
         <v>2</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>8.391</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="1" t="s">
         <v>2</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>13.13</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="1" t="s">
         <v>2</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>505.71499999999997</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="1" t="s">
         <v>1</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>17.832000000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="1" t="s">
         <v>1</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>11.079000000000001</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="1" t="s">
         <v>1</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>10.333</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="1" t="s">
         <v>1</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="1" t="s">
         <v>1</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>11.138999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="1" t="s">
         <v>1</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>14.916</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="1" t="s">
         <v>1</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>36.29</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="1" t="s">
         <v>2</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>78.453999999999994</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="1" t="s">
         <v>2</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>23.052</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="1" t="s">
         <v>2</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>16.404</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="1" t="s">
         <v>2</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>15.273</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="1" t="s">
         <v>2</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>13.53</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="1" t="s">
         <v>2</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>14.036</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="1" t="s">
         <v>2</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>12.797000000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="1" t="s">
         <v>2</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>12.715</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="1" t="s">
         <v>2</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>12.191000000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="1" t="s">
         <v>2</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>12.420999999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="1" t="s">
         <v>2</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>12.596</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="1" t="s">
         <v>2</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>12.917999999999999</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="1" t="s">
         <v>2</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="1" t="s">
         <v>2</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>14.117000000000001</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="1" t="s">
         <v>2</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>14.702</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="1" t="s">
         <v>2</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>15.016</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="1" t="s">
         <v>2</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>15.879</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="1" t="s">
         <v>2</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="1" t="s">
         <v>2</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>20.692</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="1" t="s">
         <v>2</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>26.167000000000002</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="1" t="s">
         <v>2</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>38.466999999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="1" t="s">
         <v>2</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>74.525999999999996</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="1" t="s">
         <v>2</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>261.05500000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="1" t="s">
         <v>1</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>176.90600000000001</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="1" t="s">
         <v>1</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>88.867999999999995</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="1" t="s">
         <v>1</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>68.421999999999997</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="1" t="s">
         <v>1</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>76.492000000000004</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="1" t="s">
         <v>1</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>100.411</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="1" t="s">
         <v>1</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>195.76300000000001</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="1" t="s">
         <v>0</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="1" t="s">
         <v>2</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>254.351</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="1" t="s">
         <v>2</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>118.25700000000001</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="1" t="s">
         <v>2</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>65.286000000000001</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="1" t="s">
         <v>2</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>42.646000000000001</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="1" t="s">
         <v>2</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>35.680999999999997</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="1" t="s">
         <v>2</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>33.97</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="1" t="s">
         <v>2</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="1" t="s">
         <v>2</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>28.667999999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="1" t="s">
         <v>2</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>28.457999999999998</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="1" t="s">
         <v>2</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>29.940999999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="1" t="s">
         <v>2</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>34.847999999999999</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="1" t="s">
         <v>2</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>45.237000000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="1" t="s">
         <v>2</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>78.177999999999997</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="1" t="s">
         <v>2</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>150.482</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="1" t="s">
         <v>2</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>425.9</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="1" t="s">
         <v>1</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>256.19499999999999</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="1" t="s">
         <v>1</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>88.662999999999997</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="1" t="s">
         <v>1</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>60.514000000000003</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="1" t="s">
         <v>1</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>60.941000000000003</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="1" t="s">
         <v>1</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>67.781999999999996</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="1" t="s">
         <v>1</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>70.853999999999999</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="1" t="s">
         <v>1</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>76.805999999999997</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="1" t="s">
         <v>1</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="1" t="s">
         <v>1</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>59.901000000000003</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="1" t="s">
         <v>1</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>44.531999999999996</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="1" t="s">
         <v>1</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>39.761000000000003</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="1" t="s">
         <v>1</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="1" t="s">
         <v>1</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>53.625999999999998</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="1" t="s">
         <v>1</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>51.411999999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="1" t="s">
         <v>1</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>44.148000000000003</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="1" t="s">
         <v>1</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>39.851999999999997</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="1" t="s">
         <v>1</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>39.124000000000002</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="1" t="s">
         <v>1</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>41.497</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="1" t="s">
         <v>1</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>52.119</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="1" t="s">
         <v>1</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>142.63200000000001</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="1" t="s">
         <v>2</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>138.852</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="1" t="s">
         <v>2</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>52.706000000000003</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="1" t="s">
         <v>2</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>40.320999999999998</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="1" t="s">
         <v>2</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>34.979999999999997</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="1" t="s">
         <v>2</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>32.073999999999998</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="1" t="s">
         <v>2</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>30.617999999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="1" t="s">
         <v>2</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>33.091999999999999</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="1" t="s">
         <v>2</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>40.814</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="1" t="s">
         <v>2</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>47.01</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="1" t="s">
         <v>2</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>45.39</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="1" t="s">
         <v>2</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>43.749000000000002</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="1" t="s">
         <v>2</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>45.536000000000001</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="1" t="s">
         <v>2</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>46.152999999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="1" t="s">
         <v>2</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>50.094999999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="1" t="s">
         <v>2</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>54.228000000000002</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="1" t="s">
         <v>2</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>68.957999999999998</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="1" t="s">
         <v>2</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>344.11099999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="1" t="s">
         <v>1</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>78.492000000000004</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="1" t="s">
         <v>1</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>32.356000000000002</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="1" t="s">
         <v>1</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>25.446999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="1" t="s">
         <v>1</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>23.216999999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="1" t="s">
         <v>1</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>21.175999999999998</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="1" t="s">
         <v>1</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>20.673999999999999</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="1" t="s">
         <v>1</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>20.946999999999999</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="1" t="s">
         <v>1</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>26.981000000000002</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="1" t="s">
         <v>1</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>46.982999999999997</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="1" t="s">
         <v>1</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>461.31700000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="1" t="s">
         <v>2</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>64.558999999999997</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="1" t="s">
         <v>2</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>36.155999999999999</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="1" t="s">
         <v>2</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>25.55</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="1" t="s">
         <v>2</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>20.192</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="1" t="s">
         <v>2</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>17.248000000000001</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="1" t="s">
         <v>2</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>16.939</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="1" t="s">
         <v>2</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>16.923999999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="1" t="s">
         <v>2</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>18.462</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="1" t="s">
         <v>2</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>35.654000000000003</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="1" t="s">
         <v>1</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>82.358999999999995</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="1" t="s">
         <v>1</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>19.143000000000001</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="1" t="s">
         <v>1</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>13.872999999999999</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="1" t="s">
         <v>1</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>12.295</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="1" t="s">
         <v>1</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>11.82</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="1" t="s">
         <v>1</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>11.311999999999999</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="1" t="s">
         <v>1</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>12.167999999999999</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="1" t="s">
         <v>1</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>13.172000000000001</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="1" t="s">
         <v>1</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>14.061</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="1" t="s">
         <v>1</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>15.03</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="1" t="s">
         <v>1</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>27.219000000000001</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="1" t="s">
         <v>2</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>109.068</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="1" t="s">
         <v>2</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>18.282</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="1" t="s">
         <v>2</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>13.573</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="1" t="s">
         <v>2</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>11.523</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="1" t="s">
         <v>2</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>9.5310000000000006</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="1" t="s">
         <v>2</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>7.6550000000000002</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="1" t="s">
         <v>2</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>6.782</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="1" t="s">
         <v>2</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>6.4790000000000001</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="1" t="s">
         <v>2</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>6.7649999999999997</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="1" t="s">
         <v>2</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>9.07</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" s="1" t="s">
         <v>2</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>13.16</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="1" t="s">
         <v>2</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>22.981999999999999</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" s="1" t="s">
         <v>1</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>261.83300000000003</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="1" t="s">
         <v>1</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>17.029</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" s="1" t="s">
         <v>1</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>10.021000000000001</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" s="1" t="s">
         <v>1</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>9.5850000000000009</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" s="1" t="s">
         <v>1</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>9.6289999999999996</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" s="1" t="s">
         <v>1</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>10.795999999999999</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" s="1" t="s">
         <v>1</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>11.657999999999999</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" s="1" t="s">
         <v>1</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>13.676</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" s="1" t="s">
         <v>1</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>15.946999999999999</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" s="1" t="s">
         <v>1</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>25.026</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" s="1" t="s">
         <v>1</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>277.07400000000001</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" s="1" t="s">
         <v>2</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>36.386000000000003</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" s="1" t="s">
         <v>2</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>22.640999999999998</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" s="1" t="s">
         <v>2</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>22.602</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" s="1" t="s">
         <v>2</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>24.401</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" s="1" t="s">
         <v>2</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>28.645</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" s="1" t="s">
         <v>2</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>35.829000000000001</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" s="1" t="s">
         <v>2</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>45.829000000000001</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="1" t="s">
         <v>2</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>53.218000000000004</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="1" t="s">
         <v>2</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>66.781999999999996</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="1" t="s">
         <v>2</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>83.86</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="1" t="s">
         <v>2</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>141.85499999999999</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" s="1" t="s">
         <v>2</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>228.80699999999999</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="1" t="s">
         <v>2</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>1055.4929999999999</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" s="1" t="s">
         <v>1</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>1449.4449999999999</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" s="1" t="s">
         <v>1</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>509.22399999999999</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" s="1" t="s">
         <v>1</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>639.048</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" s="1" t="s">
         <v>1</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>1246.8889999999999</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" s="1" t="s">
         <v>1</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>1118.6099999999999</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" s="1" t="s">
         <v>1</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>900.72299999999996</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" s="1" t="s">
         <v>1</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>516.22</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" s="1" t="s">
         <v>1</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>422.71600000000001</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" s="1" t="s">
         <v>1</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>410.97</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" s="1" t="s">
         <v>1</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>740.12599999999998</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" s="1" t="s">
         <v>0</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" s="1" t="s">
         <v>2</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>1922.596</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" s="1" t="s">
         <v>2</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>1600.653</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" s="1" t="s">
         <v>2</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>1208.604</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" s="1" t="s">
         <v>0</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" s="1" t="s">
         <v>2</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>922.11900000000003</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" s="1" t="s">
         <v>2</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>1131.162</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" s="1" t="s">
         <v>2</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>524.32299999999998</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" s="1" t="s">
         <v>2</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>501.74700000000001</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" s="1" t="s">
         <v>2</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>387.38600000000002</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" s="1" t="s">
         <v>2</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>646.423</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" s="1" t="s">
         <v>2</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>941.27300000000002</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" s="1" t="s">
         <v>2</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>1876.5039999999999</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" s="1" t="s">
         <v>2</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>606.86599999999999</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" s="1" t="s">
         <v>2</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>369.31299999999999</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" s="1" t="s">
         <v>2</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>235.21</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" s="1" t="s">
         <v>2</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>195.834</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" s="1" t="s">
         <v>2</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>175.55699999999999</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" s="1" t="s">
         <v>2</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>160.80000000000001</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" s="1" t="s">
         <v>2</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>142.482</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" s="1" t="s">
         <v>2</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>129.63300000000001</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" s="1" t="s">
         <v>2</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>105.681</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" s="1" t="s">
         <v>2</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>90.242999999999995</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" s="1" t="s">
         <v>2</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>73.116</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" s="1" t="s">
         <v>2</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>64.581999999999994</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" s="1" t="s">
         <v>2</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>67.524000000000001</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" s="1" t="s">
         <v>2</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>84.516000000000005</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" s="1" t="s">
         <v>2</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>154.464</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" s="1" t="s">
         <v>2</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>1712.2629999999999</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="1" t="s">
         <v>1</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>170.95500000000001</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" s="1" t="s">
         <v>1</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>70.268000000000001</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" s="1" t="s">
         <v>1</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>45.591999999999999</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" s="1" t="s">
         <v>1</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>28.398</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" s="1" t="s">
         <v>1</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>19.187000000000001</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" s="1" t="s">
         <v>1</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>14.785</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" s="1" t="s">
         <v>1</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>12.414999999999999</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" s="1" t="s">
         <v>1</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" s="1" t="s">
         <v>1</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>11.087999999999999</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" s="1" t="s">
         <v>1</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>12.102</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" s="1" t="s">
         <v>1</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" s="1" t="s">
         <v>1</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>19.588999999999999</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" s="1" t="s">
         <v>0</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" s="1" t="s">
         <v>2</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>17.687999999999999</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" s="1" t="s">
         <v>2</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>10.726000000000001</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" s="1" t="s">
         <v>2</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>9.5440000000000005</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" s="1" t="s">
         <v>2</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>9.3859999999999992</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" s="1" t="s">
         <v>2</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>9.6229999999999993</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" s="1" t="s">
         <v>2</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>10.256</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" s="1" t="s">
         <v>2</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>13.976000000000001</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" s="1" t="s">
         <v>2</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>47.749000000000002</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" s="1" t="s">
         <v>1</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" s="1" t="s">
         <v>1</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>13.746</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" s="1" t="s">
         <v>1</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>11.938000000000001</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" s="1" t="s">
         <v>1</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>11.778</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" s="1" t="s">
         <v>1</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>12.569000000000001</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" s="1" t="s">
         <v>1</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>13.375</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" s="1" t="s">
         <v>1</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>13.047000000000001</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" s="1" t="s">
         <v>1</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>15.09</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" s="1" t="s">
         <v>1</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>38.142000000000003</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" s="1" t="s">
         <v>2</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>47.942</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" s="1" t="s">
         <v>2</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>14.332000000000001</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" s="1" t="s">
         <v>2</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>11.09</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" s="1" t="s">
         <v>2</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>9.3620000000000001</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" s="1" t="s">
         <v>2</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>8.7349999999999994</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" s="1" t="s">
         <v>2</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>8.0289999999999999</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" s="1" t="s">
         <v>2</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>7.6470000000000002</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" s="1" t="s">
         <v>2</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>7.7690000000000001</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" s="1" t="s">
         <v>2</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>8.9830000000000005</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" s="1" t="s">
         <v>2</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>12.537000000000001</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" s="1" t="s">
         <v>2</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>20.225000000000001</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" s="1" t="s">
         <v>2</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>74.308999999999997</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" s="1" t="s">
         <v>1</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>55.947000000000003</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" s="1" t="s">
         <v>1</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>22.513999999999999</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" s="1" t="s">
         <v>1</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>17.433</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" s="1" t="s">
         <v>1</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>16.247</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" s="1" t="s">
         <v>1</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>16.213999999999999</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" s="1" t="s">
         <v>1</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>15.891999999999999</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" s="1" t="s">
         <v>1</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>16.225999999999999</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" s="1" t="s">
         <v>1</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>16.420000000000002</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" s="1" t="s">
         <v>1</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>17.702999999999999</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" s="1" t="s">
         <v>1</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>18.945</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" s="1" t="s">
         <v>1</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>19.972999999999999</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" s="1" t="s">
         <v>1</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>21.774000000000001</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" s="1" t="s">
         <v>1</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>22.425999999999998</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" s="1" t="s">
         <v>1</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>25.917999999999999</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" s="1" t="s">
         <v>1</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>36.999000000000002</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" s="1" t="s">
         <v>1</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>179.68899999999999</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" s="1" t="s">
         <v>2</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>73.980999999999995</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" s="1" t="s">
         <v>2</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>35.877000000000002</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" s="1" t="s">
         <v>2</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>28.925999999999998</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" s="1" t="s">
         <v>2</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>23.283999999999999</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" s="1" t="s">
         <v>2</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>20.552</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" s="1" t="s">
         <v>2</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>18.62</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" s="1" t="s">
         <v>2</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>19.05</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" s="1" t="s">
         <v>2</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>19.823</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" s="1" t="s">
         <v>2</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>21.802</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" s="1" t="s">
         <v>2</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>23.742000000000001</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" s="1" t="s">
         <v>2</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>25.405000000000001</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" s="1" t="s">
         <v>2</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>26.533999999999999</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" s="1" t="s">
         <v>2</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>27.286999999999999</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" s="1" t="s">
         <v>2</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>29.984000000000002</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" s="1" t="s">
         <v>2</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>39.606000000000002</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" s="1" t="s">
         <v>2</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>68.018000000000001</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" s="1" t="s">
         <v>1</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>501.63799999999998</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" s="1" t="s">
         <v>1</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>51.84</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" s="1" t="s">
         <v>1</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>28.533999999999999</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" s="1" t="s">
         <v>1</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>23.817</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" s="1" t="s">
         <v>1</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>23.413</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" s="1" t="s">
         <v>1</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>24.27</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" s="1" t="s">
         <v>1</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>25.308</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" s="1" t="s">
         <v>1</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>25.765000000000001</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" s="1" t="s">
         <v>1</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>26.742000000000001</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" s="1" t="s">
         <v>1</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>28.585000000000001</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" s="1" t="s">
         <v>1</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>34.606000000000002</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" s="1" t="s">
         <v>1</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>61.587000000000003</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" s="1" t="s">
         <v>1</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>508.916</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" s="1" t="s">
         <v>2</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>90.287999999999997</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" s="1" t="s">
         <v>2</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" s="1" t="s">
         <v>2</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>40.533000000000001</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" s="1" t="s">
         <v>2</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>33.53</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" s="1" t="s">
         <v>2</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>32.973999999999997</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" s="1" t="s">
         <v>2</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>33.472000000000001</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" s="1" t="s">
         <v>2</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>36.593000000000004</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" s="1" t="s">
         <v>2</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>37.543999999999997</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" s="1" t="s">
         <v>2</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>40.503999999999998</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" s="1" t="s">
         <v>2</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>45.508000000000003</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" s="1" t="s">
         <v>2</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>51.112000000000002</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" s="1" t="s">
         <v>2</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>65.272999999999996</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" s="1" t="s">
         <v>2</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>67.954999999999998</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" s="1" t="s">
         <v>2</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>73.361000000000004</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" s="1" t="s">
         <v>2</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>80.119</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" s="1" t="s">
         <v>1</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>517.79399999999998</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" s="1" t="s">
         <v>1</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>49.66</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" s="1" t="s">
         <v>1</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>21.824999999999999</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" s="1" t="s">
         <v>1</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>18.585000000000001</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" s="1" t="s">
         <v>1</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>16.994</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" s="1" t="s">
         <v>1</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>14.567</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" s="1" t="s">
         <v>1</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>12.846</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" s="1" t="s">
         <v>1</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>11.667999999999999</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" s="1" t="s">
         <v>1</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>11.515000000000001</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" s="1" t="s">
         <v>1</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>10.499000000000001</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" s="1" t="s">
         <v>1</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>9.4260000000000002</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" s="1" t="s">
         <v>1</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>8.9060000000000006</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" s="1" t="s">
         <v>1</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>8.8940000000000001</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" s="1" t="s">
         <v>1</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>10.427</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" s="1" t="s">
         <v>1</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>14.786</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" s="1" t="s">
         <v>1</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>63.93</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" s="1" t="s">
         <v>2</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>30.792000000000002</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" s="1" t="s">
         <v>2</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>14.102</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" s="1" t="s">
         <v>2</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>11.801</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" s="1" t="s">
         <v>2</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>10.097</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" s="1" t="s">
         <v>2</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>9.83</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" s="1" t="s">
         <v>2</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>10.246</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" s="1" t="s">
         <v>2</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>11.618</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" s="1" t="s">
         <v>2</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>14.11</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" s="1" t="s">
         <v>2</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>17.216999999999999</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" s="1" t="s">
         <v>2</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>19.922000000000001</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" s="1" t="s">
         <v>2</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>24.285</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" s="1" t="s">
         <v>2</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>30.382000000000001</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" s="1" t="s">
         <v>2</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>42.853999999999999</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" s="1" t="s">
         <v>2</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>52.393000000000001</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" s="1" t="s">
         <v>2</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>62.249000000000002</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" s="1" t="s">
         <v>2</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>60.122999999999998</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" s="1" t="s">
         <v>2</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>45.381</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" s="1" t="s">
         <v>2</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>38.417999999999999</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" s="1" t="s">
         <v>2</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" s="1" t="s">
         <v>2</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>38.478000000000002</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" s="1" t="s">
         <v>2</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>42.307000000000002</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" s="1" t="s">
         <v>2</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>50.857999999999997</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" s="1" t="s">
         <v>2</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>61.283000000000001</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" s="1" t="s">
         <v>2</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>68.704999999999998</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" s="1" t="s">
         <v>2</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>71.677000000000007</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" s="1" t="s">
         <v>2</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>73.256</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" s="1" t="s">
         <v>2</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>52.323999999999998</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" s="1" t="s">
         <v>2</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>36.796999999999997</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" s="1" t="s">
         <v>2</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>25.722000000000001</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" s="1" t="s">
         <v>2</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>21.981000000000002</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" s="1" t="s">
         <v>2</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>19.975000000000001</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" s="1" t="s">
         <v>2</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" s="1" t="s">
         <v>2</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>21.61</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" s="1" t="s">
         <v>2</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" s="1" t="s">
         <v>2</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>58.024000000000001</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" s="1" t="s">
         <v>1</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>50.183</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" s="1" t="s">
         <v>1</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>15.321999999999999</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" s="1" t="s">
         <v>1</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>10.368</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" s="1" t="s">
         <v>1</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>8.8539999999999992</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" s="1" t="s">
         <v>1</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>8.6920000000000002</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" s="1" t="s">
         <v>1</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>8.8919999999999995</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" s="1" t="s">
         <v>1</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>8.8729999999999993</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" s="1" t="s">
         <v>1</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>8.9550000000000001</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" s="1" t="s">
         <v>1</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>9.0109999999999992</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" s="1" t="s">
         <v>1</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>9.5679999999999996</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" s="1" t="s">
         <v>1</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>11.917999999999999</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" s="1" t="s">
         <v>1</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>21.263999999999999</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" s="1" t="s">
         <v>1</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>1853.8230000000001</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" s="1" t="s">
         <v>2</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>26.067</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" s="1" t="s">
         <v>2</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>16.006</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" s="1" t="s">
         <v>2</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>12.856</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" s="1" t="s">
         <v>2</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>11.321999999999999</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" s="1" t="s">
         <v>2</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>9.9779999999999998</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" s="1" t="s">
         <v>2</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>9.1110000000000007</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" s="1" t="s">
         <v>2</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>9.0589999999999993</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" s="1" t="s">
         <v>2</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>9.5519999999999996</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" s="1" t="s">
         <v>2</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>11.493</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" s="1" t="s">
         <v>2</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>16.933</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" s="1" t="s">
         <v>2</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>40.878</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" s="1" t="s">
         <v>1</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>95.197000000000003</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" s="1" t="s">
         <v>1</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>25.655000000000001</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" s="1" t="s">
         <v>1</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>17.728999999999999</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" s="1" t="s">
         <v>1</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>15.555999999999999</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" s="1" t="s">
         <v>1</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>15.872</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" s="1" t="s">
         <v>1</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>16.167000000000002</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" s="1" t="s">
         <v>1</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>17.931999999999999</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" s="1" t="s">
         <v>1</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>23.163</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" s="1" t="s">
         <v>1</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>56.171999999999997</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" s="1" t="s">
         <v>2</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>155.57</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" s="1" t="s">
         <v>2</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>48.893000000000001</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" s="1" t="s">
         <v>2</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>38.667000000000002</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A778" s="1" t="s">
         <v>2</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>31.358000000000001</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A779" s="1" t="s">
         <v>2</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>22.797999999999998</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" s="1" t="s">
         <v>2</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>18.765999999999998</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" s="1" t="s">
         <v>2</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>15.932</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" s="1" t="s">
         <v>2</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>13.984999999999999</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" s="1" t="s">
         <v>2</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>12.83</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" s="1" t="s">
         <v>2</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>12.846</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" s="1" t="s">
         <v>2</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>12.938000000000001</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" s="1" t="s">
         <v>2</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>12.442</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" s="1" t="s">
         <v>2</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>12.294</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" s="1" t="s">
         <v>2</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>12.101000000000001</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A789" s="1" t="s">
         <v>2</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>11.862</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A790" s="1" t="s">
         <v>2</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>11.933</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" s="1" t="s">
         <v>2</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>11.451000000000001</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" s="1" t="s">
         <v>2</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>11.603999999999999</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" s="1" t="s">
         <v>2</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>11.715999999999999</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" s="1" t="s">
         <v>2</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>13.512</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" s="1" t="s">
         <v>2</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>14.752000000000001</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" s="1" t="s">
         <v>2</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>15.717000000000001</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" s="1" t="s">
         <v>2</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>15.823</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" s="1" t="s">
         <v>2</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>17.565999999999999</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" s="1" t="s">
         <v>2</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>21.856999999999999</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" s="1" t="s">
         <v>2</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>26.977</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" s="1" t="s">
         <v>2</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>33.621000000000002</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" s="1" t="s">
         <v>2</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>33.540999999999997</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A803" s="1" t="s">
         <v>0</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" s="1"/>
       <c r="B804" s="11"/>
       <c r="C804" s="11"/>
@@ -9635,13 +9635,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="11.15625" customWidth="1"/>
+    <col min="2" max="2" width="14.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1069</v>
       </c>
@@ -9682,12 +9682,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6">
         <v>1069</v>
       </c>
@@ -9725,13 +9725,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10">
         <v>1069</v>
       </c>
@@ -9772,12 +9772,12 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f>A4/2</f>
         <v>534.5</v>
@@ -9802,7 +9802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1069</v>
       </c>
